--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6441970520611791</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N2">
-        <v>0.6441970520611791</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q2">
-        <v>7.248594283158481</v>
+        <v>52.02660570465955</v>
       </c>
       <c r="R2">
-        <v>7.248594283158481</v>
+        <v>468.2394513419359</v>
       </c>
       <c r="S2">
-        <v>0.003971282453229253</v>
+        <v>0.01340267048224237</v>
       </c>
       <c r="T2">
-        <v>0.003971282453229253</v>
+        <v>0.01340267048224237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.32323296953614</v>
+        <v>1.401354</v>
       </c>
       <c r="N3">
-        <v>1.32323296953614</v>
+        <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q3">
-        <v>14.8892002960541</v>
+        <v>27.76827981175201</v>
       </c>
       <c r="R3">
-        <v>14.8892002960541</v>
+        <v>249.914518305768</v>
       </c>
       <c r="S3">
-        <v>0.008157336108011642</v>
+        <v>0.007153438113728099</v>
       </c>
       <c r="T3">
-        <v>0.008157336108011642</v>
+        <v>0.007153438113728096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.698647115963187</v>
+        <v>0.066056</v>
       </c>
       <c r="N4">
-        <v>0.698647115963187</v>
+        <v>0.198168</v>
       </c>
       <c r="O4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q4">
-        <v>7.861273929323992</v>
+        <v>1.308920865994667</v>
       </c>
       <c r="R4">
-        <v>7.861273929323992</v>
+        <v>11.780287793952</v>
       </c>
       <c r="S4">
-        <v>0.004306950837086931</v>
+        <v>0.0003371935342821466</v>
       </c>
       <c r="T4">
-        <v>0.004306950837086931</v>
+        <v>0.0003371935342821465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6441970520611791</v>
+        <v>0.704398</v>
       </c>
       <c r="N5">
-        <v>0.6441970520611791</v>
+        <v>2.113194</v>
       </c>
       <c r="O5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q5">
-        <v>333.6794831272403</v>
+        <v>13.95787271655733</v>
       </c>
       <c r="R5">
-        <v>333.6794831272403</v>
+        <v>125.620854449016</v>
       </c>
       <c r="S5">
-        <v>0.1828127530084917</v>
+        <v>0.003595713503107598</v>
       </c>
       <c r="T5">
-        <v>0.1828127530084917</v>
+        <v>0.003595713503107597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H6">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I6">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J6">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32323296953614</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N6">
-        <v>1.32323296953614</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q6">
-        <v>685.4047095046473</v>
+        <v>1392.341065099925</v>
       </c>
       <c r="R6">
-        <v>685.4047095046473</v>
+        <v>12531.06958589932</v>
       </c>
       <c r="S6">
-        <v>0.3755122151809069</v>
+        <v>0.3586835666420837</v>
       </c>
       <c r="T6">
-        <v>0.3755122151809069</v>
+        <v>0.3586835666420837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H7">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J7">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.698647115963187</v>
+        <v>1.401354</v>
       </c>
       <c r="N7">
-        <v>0.698647115963187</v>
+        <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q7">
-        <v>361.8833830378871</v>
+        <v>743.137396057818</v>
       </c>
       <c r="R7">
-        <v>361.8833830378871</v>
+        <v>6688.236564520363</v>
       </c>
       <c r="S7">
-        <v>0.1982648045997943</v>
+        <v>0.191441004222625</v>
       </c>
       <c r="T7">
-        <v>0.1982648045997943</v>
+        <v>0.191441004222625</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.6441970520611791</v>
+        <v>0.066056</v>
       </c>
       <c r="N8">
-        <v>0.6441970520611791</v>
+        <v>0.198168</v>
       </c>
       <c r="O8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q8">
-        <v>22.44801405448717</v>
+        <v>35.02946709681866</v>
       </c>
       <c r="R8">
-        <v>22.44801405448717</v>
+        <v>315.265203871368</v>
       </c>
       <c r="S8">
-        <v>0.01229857829559523</v>
+        <v>0.009024006050526646</v>
       </c>
       <c r="T8">
-        <v>0.01229857829559523</v>
+        <v>0.009024006050526645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.32323296953614</v>
+        <v>0.704398</v>
       </c>
       <c r="N9">
-        <v>1.32323296953614</v>
+        <v>2.113194</v>
       </c>
       <c r="O9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q9">
-        <v>46.11004071264686</v>
+        <v>373.5419426556993</v>
       </c>
       <c r="R9">
-        <v>46.11004071264686</v>
+        <v>3361.877483901294</v>
       </c>
       <c r="S9">
-        <v>0.02526227685625558</v>
+        <v>0.09622883332292098</v>
       </c>
       <c r="T9">
-        <v>0.02526227685625558</v>
+        <v>0.09622883332292098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H10">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I10">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J10">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.698647115963187</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N10">
-        <v>0.698647115963187</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O10">
-        <v>0.2620506009073908</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P10">
-        <v>0.2620506009073908</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q10">
-        <v>24.34540833133014</v>
+        <v>299.7229084179617</v>
       </c>
       <c r="R10">
-        <v>24.34540833133014</v>
+        <v>2697.506175761655</v>
       </c>
       <c r="S10">
-        <v>0.01333810241629147</v>
+        <v>0.07721217486893392</v>
       </c>
       <c r="T10">
-        <v>0.01333810241629147</v>
+        <v>0.07721217486893392</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H11">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I11">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J11">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6441970520611791</v>
+        <v>1.401354</v>
       </c>
       <c r="N11">
-        <v>0.6441970520611791</v>
+        <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.2416273118978948</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P11">
-        <v>0.2416273118978948</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q11">
-        <v>27.03435006538393</v>
+        <v>159.971796626292</v>
       </c>
       <c r="R11">
-        <v>27.03435006538393</v>
+        <v>1439.746169636628</v>
       </c>
       <c r="S11">
-        <v>0.01481129110765117</v>
+        <v>0.04121063151429962</v>
       </c>
       <c r="T11">
-        <v>0.01481129110765117</v>
+        <v>0.04121063151429961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H12">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I12">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J12">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.32323296953614</v>
+        <v>0.066056</v>
       </c>
       <c r="N12">
-        <v>1.32323296953614</v>
+        <v>0.198168</v>
       </c>
       <c r="O12">
-        <v>0.4963220871947144</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P12">
-        <v>0.4963220871947144</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q12">
-        <v>55.53074669006743</v>
+        <v>7.540633557221332</v>
       </c>
       <c r="R12">
-        <v>55.53074669006743</v>
+        <v>67.86570201499198</v>
       </c>
       <c r="S12">
-        <v>0.03042359267608104</v>
+        <v>0.001942556609756404</v>
       </c>
       <c r="T12">
-        <v>0.03042359267608104</v>
+        <v>0.001942556609756404</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H13">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I13">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J13">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.698647115963187</v>
+        <v>0.704398</v>
       </c>
       <c r="N13">
-        <v>0.698647115963187</v>
+        <v>2.113194</v>
       </c>
       <c r="O13">
-        <v>0.2620506009073908</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P13">
-        <v>0.2620506009073908</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q13">
-        <v>29.3193994674256</v>
+        <v>80.41066968087064</v>
       </c>
       <c r="R13">
-        <v>29.3193994674256</v>
+        <v>723.6960271278358</v>
       </c>
       <c r="S13">
-        <v>0.01606319957991512</v>
+        <v>0.02071474189777145</v>
       </c>
       <c r="T13">
-        <v>0.01606319957991512</v>
+        <v>0.02071474189777145</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H14">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I14">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J14">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6441970520611791</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N14">
-        <v>0.6441970520611791</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O14">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P14">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q14">
-        <v>25.05596786295503</v>
+        <v>111.1406736614542</v>
       </c>
       <c r="R14">
-        <v>25.05596786295503</v>
+        <v>1000.266062953088</v>
       </c>
       <c r="S14">
-        <v>0.01372739618687441</v>
+        <v>0.0286311552730317</v>
       </c>
       <c r="T14">
-        <v>0.01372739618687441</v>
+        <v>0.0286311552730317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H15">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I15">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J15">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.32323296953614</v>
+        <v>1.401354</v>
       </c>
       <c r="N15">
-        <v>1.32323296953614</v>
+        <v>4.204062</v>
       </c>
       <c r="O15">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P15">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q15">
-        <v>51.46698926022308</v>
+        <v>59.31936713721601</v>
       </c>
       <c r="R15">
-        <v>51.46698926022308</v>
+        <v>533.874304234944</v>
       </c>
       <c r="S15">
-        <v>0.02819718463820575</v>
+        <v>0.01528137229379273</v>
       </c>
       <c r="T15">
-        <v>0.02819718463820575</v>
+        <v>0.01528137229379272</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H16">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I16">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J16">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.698647115963187</v>
+        <v>0.066056</v>
       </c>
       <c r="N16">
-        <v>0.698647115963187</v>
+        <v>0.198168</v>
       </c>
       <c r="O16">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P16">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q16">
-        <v>27.17379663429034</v>
+        <v>2.796152946090666</v>
       </c>
       <c r="R16">
-        <v>27.17379663429034</v>
+        <v>25.165376514816</v>
       </c>
       <c r="S16">
-        <v>0.01488768960515678</v>
+        <v>0.0007203221514612098</v>
       </c>
       <c r="T16">
-        <v>0.01488768960515678</v>
+        <v>0.0007203221514612098</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H17">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I17">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J17">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6441970520611791</v>
+        <v>0.704398</v>
       </c>
       <c r="N17">
-        <v>0.6441970520611791</v>
+        <v>2.113194</v>
       </c>
       <c r="O17">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P17">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q17">
-        <v>25.56451004032758</v>
+        <v>29.81719363752533</v>
       </c>
       <c r="R17">
-        <v>25.56451004032758</v>
+        <v>268.354742737728</v>
       </c>
       <c r="S17">
-        <v>0.01400601084605308</v>
+        <v>0.007681262608165393</v>
       </c>
       <c r="T17">
-        <v>0.01400601084605308</v>
+        <v>0.007681262608165393</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.684301501429</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H18">
-        <v>39.684301501429</v>
+        <v>138.661867</v>
       </c>
       <c r="I18">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J18">
-        <v>0.05796534645045275</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.32323296953614</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N18">
-        <v>1.32323296953614</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O18">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P18">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q18">
-        <v>52.51157611970339</v>
+        <v>121.3556950759675</v>
       </c>
       <c r="R18">
-        <v>52.51157611970339</v>
+        <v>1092.201255683708</v>
       </c>
       <c r="S18">
-        <v>0.02876948173525343</v>
+        <v>0.0312626659036687</v>
       </c>
       <c r="T18">
-        <v>0.02876948173525343</v>
+        <v>0.0312626659036687</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H19">
+        <v>138.661867</v>
+      </c>
+      <c r="I19">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J19">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.401354</v>
+      </c>
+      <c r="N19">
+        <v>4.204062</v>
+      </c>
+      <c r="O19">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P19">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q19">
+        <v>64.77145398930601</v>
+      </c>
+      <c r="R19">
+        <v>582.9430859037541</v>
+      </c>
+      <c r="S19">
+        <v>0.01668589450948254</v>
+      </c>
+      <c r="T19">
+        <v>0.01668589450948253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H20">
+        <v>138.661867</v>
+      </c>
+      <c r="I20">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J20">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.066056</v>
+      </c>
+      <c r="N20">
+        <v>0.198168</v>
+      </c>
+      <c r="O20">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P20">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q20">
+        <v>3.053149428850667</v>
+      </c>
+      <c r="R20">
+        <v>27.478344859656</v>
+      </c>
+      <c r="S20">
+        <v>0.0007865274924953854</v>
+      </c>
+      <c r="T20">
+        <v>0.0007865274924953853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H21">
+        <v>138.661867</v>
+      </c>
+      <c r="I21">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J21">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.704398</v>
+      </c>
+      <c r="N21">
+        <v>2.113194</v>
+      </c>
+      <c r="O21">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P21">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q21">
+        <v>32.55771393035533</v>
+      </c>
+      <c r="R21">
+        <v>293.019425373198</v>
+      </c>
+      <c r="S21">
+        <v>0.008387253128538882</v>
+      </c>
+      <c r="T21">
+        <v>0.008387253128538882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>39.684301501429</v>
-      </c>
-      <c r="H19">
-        <v>39.684301501429</v>
-      </c>
-      <c r="I19">
-        <v>0.05796534645045275</v>
-      </c>
-      <c r="J19">
-        <v>0.05796534645045275</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="N19">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="O19">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="P19">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="Q19">
-        <v>27.72532279298694</v>
-      </c>
-      <c r="R19">
-        <v>27.72532279298694</v>
-      </c>
-      <c r="S19">
-        <v>0.01518985386914623</v>
-      </c>
-      <c r="T19">
-        <v>0.01518985386914623</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>56.330706</v>
+      </c>
+      <c r="H22">
+        <v>168.992118</v>
+      </c>
+      <c r="I22">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J22">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P22">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q22">
+        <v>147.900474629048</v>
+      </c>
+      <c r="R22">
+        <v>1331.104271661432</v>
+      </c>
+      <c r="S22">
+        <v>0.03810091584434932</v>
+      </c>
+      <c r="T22">
+        <v>0.03810091584434933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>56.330706</v>
+      </c>
+      <c r="H23">
+        <v>168.992118</v>
+      </c>
+      <c r="I23">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J23">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.401354</v>
+      </c>
+      <c r="N23">
+        <v>4.204062</v>
+      </c>
+      <c r="O23">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P23">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q23">
+        <v>78.93926017592401</v>
+      </c>
+      <c r="R23">
+        <v>710.453341583316</v>
+      </c>
+      <c r="S23">
+        <v>0.02033568936355101</v>
+      </c>
+      <c r="T23">
+        <v>0.02033568936355101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>56.330706</v>
+      </c>
+      <c r="H24">
+        <v>168.992118</v>
+      </c>
+      <c r="I24">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J24">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.066056</v>
+      </c>
+      <c r="N24">
+        <v>0.198168</v>
+      </c>
+      <c r="O24">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P24">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q24">
+        <v>3.720981115536</v>
+      </c>
+      <c r="R24">
+        <v>33.488830039824</v>
+      </c>
+      <c r="S24">
+        <v>0.0009585688531225695</v>
+      </c>
+      <c r="T24">
+        <v>0.0009585688531225696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>56.330706</v>
+      </c>
+      <c r="H25">
+        <v>168.992118</v>
+      </c>
+      <c r="I25">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J25">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.704398</v>
+      </c>
+      <c r="N25">
+        <v>2.113194</v>
+      </c>
+      <c r="O25">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P25">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q25">
+        <v>39.67923664498799</v>
+      </c>
+      <c r="R25">
+        <v>357.113129804892</v>
+      </c>
+      <c r="S25">
+        <v>0.01022184181606261</v>
+      </c>
+      <c r="T25">
+        <v>0.01022184181606261</v>
       </c>
     </row>
   </sheetData>
